--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kłudka.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kłudka.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +463,15 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:30:02.74</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.47919837963</v>
       </c>
       <c r="B2" t="n">
         <v>2095.7</v>
@@ -480,12 +487,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:33:12.34</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.48139282408</v>
       </c>
       <c r="B3" t="n">
         <v>2285.3</v>
@@ -501,12 +511,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:52:06.24</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.49451666667</v>
       </c>
       <c r="B4" t="n">
         <v>3419.2</v>
@@ -522,12 +535,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:30:02.44</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.47919490741</v>
       </c>
       <c r="B5" t="n">
         <v>2095.4</v>
@@ -543,12 +559,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:52:06.04</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.49451435185</v>
       </c>
       <c r="B6" t="n">
         <v>3419</v>
@@ -564,12 +583,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:09:51.64</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.50684768519</v>
       </c>
       <c r="B7" t="n">
         <v>4484.6</v>
@@ -585,382 +607,819 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:36:02.39</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45684.59259826389</v>
       </c>
       <c r="B8" t="n">
-        <v>1962.3</v>
+        <v>600.4</v>
       </c>
       <c r="C8" t="n">
-        <v>14.42</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>3.78960909162249</v>
+        <v>2.681206703186037</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:40:21.09</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45684.59329155093</v>
       </c>
       <c r="B9" t="n">
-        <v>2221</v>
+        <v>660.3</v>
       </c>
       <c r="C9" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.070611562047684</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59408090277</v>
+      </c>
+      <c r="B10" t="n">
+        <v>728.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.018800173486983</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59259479167</v>
+      </c>
+      <c r="B11" t="n">
+        <v>600.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.415275829178948</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59319085648</v>
+      </c>
+      <c r="B12" t="n">
+        <v>651.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.75988280773163</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.5932880787</v>
+      </c>
+      <c r="B13" t="n">
+        <v>660</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.877202578953334</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59870127315</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1127.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.402332067489623</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60333090278</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1527.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.264711362974984</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60469895833</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1645.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.512729729924884</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59869895833</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1127.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.255094221660067</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.60142118055</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1362.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.03275578362601</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.6040994213</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1594.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.23534676006862</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64609351852</v>
+      </c>
+      <c r="B20" t="n">
+        <v>937.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.269063949584963</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.64963055556</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1243</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.132714033126831</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.66339328704</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2432.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.18912148475647</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.6460900463</v>
+      </c>
+      <c r="B23" t="n">
+        <v>937.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.658652578081405</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.64962708333</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1242.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.690100363322667</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.65109236111</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1369.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.482657057898386</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.66953564815</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2962.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.711813654218403</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.67883310185</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3766.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.325542994907926</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.68071273148</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3928.5</v>
+      </c>
+      <c r="C28" t="n">
         <v>12.71</v>
       </c>
-      <c r="D9" t="n">
-        <v>3.703281470707484</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>27.01.2025 15:08:04.69</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3884.6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.779924767357961</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:36:24.89</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1984.8</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="D28" t="n">
+        <v>3.427133185522896</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.67769768518</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3668</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.70002692086356</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.67883078704</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3765.9</v>
+      </c>
+      <c r="C30" t="n">
         <v>8.57</v>
       </c>
-      <c r="D11" t="n">
-        <v>3.267494252749852</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:38:28.79</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2108.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.366570779255459</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:40:20.89</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2220.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.516467366899763</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:30:22.48</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>937.4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.269063949584963</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:28.08</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1243</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.132714033126831</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:55:17.18</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2432.1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.18912148475647</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:27:41.38</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>776.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.784272841044835</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:30:22.18</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>937.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.658652578081405</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:27.78</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1242.7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.690100363322667</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:19:06.56</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4393.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.524176256997244</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:36:47.26</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5454.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.049371208463397</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:44:37.16</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5924</v>
-      </c>
-      <c r="C22" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.796359096254622</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:52:40.66</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="D30" t="n">
+        <v>3.03781158583505</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.68070925926</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3928.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.017870221819195</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47374143518</v>
+      </c>
+      <c r="B33" t="n">
+        <v>978.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.138887039252691</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47676111111</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.087795674800874</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47877847222</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1413.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5803166883332388</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.48801111111</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2211</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.333606583731514</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.4949162037</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2807.6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.254975761686052</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.49525648148</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.476525238582066</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.49242083333</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2592</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.885136212621418</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.4949150463</v>
+      </c>
+      <c r="B40" t="n">
         <v>2807.5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C40" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D40" t="n">
         <v>3.139301317078726</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:19:06.26</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4393.1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.163157020296369</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:42:09.16</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>5776</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.204876831599644</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.49525300926</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2836.7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.881283010755266</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
